--- a/Data/Independent Article Coding for IRR - Isaac - Re-coded.xlsx
+++ b/Data/Independent Article Coding for IRR - Isaac - Re-coded.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Google Drive\Research\Projects\Body Dissatisfaction Meta-Analysis\BD-depression-meta-analysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB0B2FB-746E-4FDF-B7DE-FBAC96BF0E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291E8895-8828-43B2-9806-4B9A2FC6294D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2790" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coding - Isaac" sheetId="4" r:id="rId1"/>
@@ -30,8 +30,570 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Isaac Ahuvia</author>
+  </authors>
+  <commentList>
+    <comment ref="AK3" authorId="0" shapeId="0" xr:uid="{CCEED7F5-7055-48E0-9304-4934558EA561}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Isaac Ahuvia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+We can always drop this if it's too confusing/categories overlap too much!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK4" authorId="0" shapeId="0" xr:uid="{166654B6-E482-477F-A8FC-7D4B24D5544E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Isaac Ahuvia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Thin-ideal internalization (Body Project)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK5" authorId="0" shapeId="0" xr:uid="{9E57D204-7349-4C9B-8643-C989C0305FDD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Isaac Ahuvia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Thin-ideal internalization/healthy weight control skills</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK8" authorId="0" shapeId="0" xr:uid="{CEE6D512-EF8F-4862-AF58-B4FAB37A2C4D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Isaac Ahuvia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Thin-ideal internalization</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK10" authorId="0" shapeId="0" xr:uid="{954C13B7-1F69-4510-9AED-62682F46B126}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Isaac Ahuvia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Multi-faceted</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN10" authorId="0" shapeId="0" xr:uid="{9F6A2856-E6A9-4B5D-B25D-360345A0F455}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Isaac Ahuvia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+"Set Your Body Free" is avail, which is the adult-targeted intervention this intervention was based on</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK12" authorId="0" shapeId="0" xr:uid="{59174384-C354-452D-A2CD-1B98A6D65B3B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Isaac Ahuvia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Media literacy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK14" authorId="0" shapeId="0" xr:uid="{E0E931D8-5886-42EE-9282-473A50DFF61C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Isaac Ahuvia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Thin-ideal internalization (Body Project)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK16" authorId="0" shapeId="0" xr:uid="{D0A00431-075D-42B9-97F8-611FB18D4AA5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Isaac Ahuvia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Body image</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN16" authorId="0" shapeId="0" xr:uid="{DF07649B-DB01-4F6B-8D8C-9559F5CB1BB6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Isaac Ahuvia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Adapted from MBCT</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK17" authorId="0" shapeId="0" xr:uid="{6F091F47-5FE2-40BB-A605-8BBFB0E4DC54}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Isaac Ahuvia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Thin-ideal internalization (Body Project)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK19" authorId="0" shapeId="0" xr:uid="{82B0418C-20BB-4512-A7B1-3E9282C8A0D2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Isaac Ahuvia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Body image through critiquing ideals, media literacy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK20" authorId="0" shapeId="0" xr:uid="{074D529A-710D-406C-A08C-C233975EF53E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Isaac Ahuvia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Body image through critiquing ideals, media literacy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK22" authorId="0" shapeId="0" xr:uid="{EC0377DB-675D-482A-98CE-189155C2D90D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Isaac Ahuvia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Thin-ideal internalization (Body Project)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK24" authorId="0" shapeId="0" xr:uid="{274FF125-2541-42AB-9FB2-FDEBBBBB442A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Isaac Ahuvia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Thin-ideal, fat talk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN24" authorId="0" shapeId="0" xr:uid="{49A2C81D-8D21-4FC4-8332-F8EC1EE63174}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Isaac Ahuvia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+It's a website</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK25" authorId="0" shapeId="0" xr:uid="{D9F7B460-EBDB-490E-A055-9A8BAA02E468}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Isaac Ahuvia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Thin-ideal, fat talk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK27" authorId="0" shapeId="0" xr:uid="{CBEBCAE3-0870-4389-A099-3637B2DC56AB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Isaac Ahuvia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Beauty ideals, media literacy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK29" authorId="0" shapeId="0" xr:uid="{D139CAAB-DA14-49A2-BD75-FDD6AC1F6F87}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Isaac Ahuvia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Multi-faceted</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK31" authorId="0" shapeId="0" xr:uid="{C436CDE5-C53E-42CC-AFCA-0CEFC652BB38}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Isaac Ahuvia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Thin-ideal internalization (Body Project)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK33" authorId="0" shapeId="0" xr:uid="{F032A383-ABC8-4E40-B9CB-3D6883C3B94D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Isaac Ahuvia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Thin-ideal internalization (Body Project)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK35" authorId="0" shapeId="0" xr:uid="{21C4FEEA-7AA7-4BE7-9B09-BF22B91EB0E4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Isaac Ahuvia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Media literacy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK36" authorId="0" shapeId="0" xr:uid="{368F9B6A-CDBD-4F0B-AA47-23D93BE40B3D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Isaac Ahuvia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+"Similar risk factors" to above</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="97">
   <si>
     <t>Article</t>
   </si>
@@ -331,7 +893,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -365,8 +927,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,6 +972,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -419,7 +1000,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -449,12 +1030,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -468,6 +1045,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,6 +1069,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -683,7 +1272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -691,126 +1280,128 @@
   <dimension ref="A1:AT37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="AA15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="AA10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AN4" sqref="AN4:AN37"/>
+      <selection pane="bottomRight" activeCell="AV18" sqref="AV18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19"/>
+    <col min="1" max="1" width="19.88671875" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="34" width="8" customWidth="1"/>
     <col min="35" max="35" width="8" style="16" customWidth="1"/>
-    <col min="36" max="46" width="8" customWidth="1"/>
+    <col min="36" max="37" width="8" customWidth="1"/>
+    <col min="38" max="38" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="39" max="46" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="25" t="s">
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="22"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="20"/>
     </row>
     <row r="2" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="23"/>
-      <c r="AR2" s="23"/>
-      <c r="AS2" s="23"/>
-      <c r="AT2" s="23"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="21"/>
     </row>
     <row r="3" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -910,22 +1501,22 @@
       <c r="AH3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI3" s="17" t="s">
+      <c r="AI3" s="27" t="s">
         <v>81</v>
       </c>
       <c r="AJ3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AK3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AL3" s="25" t="s">
         <v>36</v>
       </c>
       <c r="AM3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AN3" s="3" t="s">
+      <c r="AN3" s="25" t="s">
         <v>38</v>
       </c>
       <c r="AO3" s="3" t="s">
@@ -948,7 +1539,7 @@
       </c>
     </row>
     <row r="4" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>84</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1050,18 +1641,24 @@
       <c r="AH4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AI4" s="12">
+      <c r="AI4" s="26">
         <v>1</v>
       </c>
       <c r="AJ4" s="12">
         <v>2</v>
       </c>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="12"/>
+      <c r="AK4" s="26">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="26">
+        <v>2</v>
+      </c>
       <c r="AM4" s="12">
         <v>1</v>
       </c>
-      <c r="AN4" s="12"/>
+      <c r="AN4" s="26">
+        <v>1</v>
+      </c>
       <c r="AO4" s="12">
         <v>1</v>
       </c>
@@ -1083,7 +1680,7 @@
       </c>
     </row>
     <row r="5" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>84</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1185,18 +1782,24 @@
       <c r="AH5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AI5" s="12">
+      <c r="AI5" s="26">
         <v>1</v>
       </c>
       <c r="AJ5" s="12">
         <v>2</v>
       </c>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
+      <c r="AK5" s="26">
+        <v>2</v>
+      </c>
+      <c r="AL5" s="26">
+        <v>2</v>
+      </c>
       <c r="AM5" s="12">
         <v>1</v>
       </c>
-      <c r="AN5" s="12"/>
+      <c r="AN5" s="26">
+        <v>1</v>
+      </c>
       <c r="AO5" s="12">
         <v>1</v>
       </c>
@@ -1218,7 +1821,7 @@
       </c>
     </row>
     <row r="6" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>84</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1320,18 +1923,24 @@
       <c r="AH6" s="12">
         <v>4</v>
       </c>
-      <c r="AI6" s="12" t="s">
+      <c r="AI6" s="26" t="s">
         <v>46</v>
       </c>
       <c r="AJ6" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AK6" s="12"/>
-      <c r="AL6" s="12"/>
+      <c r="AK6" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL6" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="AM6" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AN6" s="12"/>
+      <c r="AN6" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="AO6" s="12" t="s">
         <v>46</v>
       </c>
@@ -1352,7 +1961,7 @@
       </c>
     </row>
     <row r="7" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>84</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1454,18 +2063,24 @@
       <c r="AH7" s="12">
         <v>1</v>
       </c>
-      <c r="AI7" s="12" t="s">
+      <c r="AI7" s="26" t="s">
         <v>46</v>
       </c>
       <c r="AJ7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AK7" s="12"/>
-      <c r="AL7" s="12"/>
+      <c r="AK7" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL7" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="AM7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AN7" s="12"/>
+      <c r="AN7" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="AO7" s="12" t="s">
         <v>46</v>
       </c>
@@ -1486,7 +2101,7 @@
       </c>
     </row>
     <row r="8" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>85</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1594,18 +2209,24 @@
       <c r="AH8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AI8" s="12">
+      <c r="AI8" s="26">
         <v>2</v>
       </c>
       <c r="AJ8" s="12">
         <v>2</v>
       </c>
-      <c r="AK8" s="12"/>
-      <c r="AL8" s="12"/>
+      <c r="AK8" s="26">
+        <v>2</v>
+      </c>
+      <c r="AL8" s="26">
+        <v>2</v>
+      </c>
       <c r="AM8" s="12">
         <v>1</v>
       </c>
-      <c r="AN8" s="12"/>
+      <c r="AN8" s="26">
+        <v>1</v>
+      </c>
       <c r="AO8" s="12">
         <v>1</v>
       </c>
@@ -1626,7 +2247,7 @@
       </c>
     </row>
     <row r="9" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>85</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1733,18 +2354,24 @@
       <c r="AH9" s="12">
         <v>1</v>
       </c>
-      <c r="AI9" s="12" t="s">
+      <c r="AI9" s="26" t="s">
         <v>46</v>
       </c>
       <c r="AJ9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AK9" s="12"/>
-      <c r="AL9" s="12"/>
+      <c r="AK9" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL9" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="AM9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AN9" s="12"/>
+      <c r="AN9" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="AO9" s="12" t="s">
         <v>46</v>
       </c>
@@ -1765,7 +2392,7 @@
       </c>
     </row>
     <row r="10" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>86</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1869,18 +2496,24 @@
       <c r="AH10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AI10" s="12">
+      <c r="AI10" s="26">
         <v>1</v>
       </c>
       <c r="AJ10" s="12">
         <v>5</v>
       </c>
-      <c r="AK10" s="12"/>
-      <c r="AL10" s="12"/>
+      <c r="AK10" s="26">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="26">
+        <v>2</v>
+      </c>
       <c r="AM10" s="12">
         <v>1</v>
       </c>
-      <c r="AN10" s="12"/>
+      <c r="AN10" s="26">
+        <v>2</v>
+      </c>
       <c r="AO10" s="12">
         <v>1</v>
       </c>
@@ -1902,7 +2535,7 @@
       </c>
     </row>
     <row r="11" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>86</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2006,18 +2639,24 @@
       <c r="AH11" s="12">
         <v>1</v>
       </c>
-      <c r="AI11" s="12" t="s">
+      <c r="AI11" s="26" t="s">
         <v>46</v>
       </c>
       <c r="AJ11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AK11" s="12"/>
-      <c r="AL11" s="12"/>
+      <c r="AK11" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL11" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="AM11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AN11" s="12"/>
+      <c r="AN11" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="AO11" s="12" t="s">
         <v>46</v>
       </c>
@@ -2038,7 +2677,7 @@
       </c>
     </row>
     <row r="12" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>87</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2141,18 +2780,24 @@
       <c r="AH12" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AI12" s="12">
+      <c r="AI12" s="26">
         <v>1</v>
       </c>
       <c r="AJ12" s="12">
         <v>2</v>
       </c>
-      <c r="AK12" s="12"/>
-      <c r="AL12" s="12"/>
+      <c r="AK12" s="26">
+        <v>2</v>
+      </c>
+      <c r="AL12" s="26">
+        <v>2</v>
+      </c>
       <c r="AM12" s="12">
         <v>1</v>
       </c>
-      <c r="AN12" s="12"/>
+      <c r="AN12" s="26">
+        <v>1</v>
+      </c>
       <c r="AO12" s="12">
         <v>1</v>
       </c>
@@ -2173,7 +2818,7 @@
       </c>
     </row>
     <row r="13" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>87</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2276,18 +2921,24 @@
       <c r="AH13" s="12">
         <v>1</v>
       </c>
-      <c r="AI13" s="12" t="s">
+      <c r="AI13" s="26" t="s">
         <v>46</v>
       </c>
       <c r="AJ13" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AK13" s="12"/>
-      <c r="AL13" s="12"/>
+      <c r="AK13" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL13" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="AM13" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AN13" s="12"/>
+      <c r="AN13" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="AO13" s="12" t="s">
         <v>46</v>
       </c>
@@ -2308,7 +2959,7 @@
       </c>
     </row>
     <row r="14" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>88</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2410,18 +3061,24 @@
       <c r="AH14" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AI14" s="12">
+      <c r="AI14" s="26">
         <v>1</v>
       </c>
       <c r="AJ14" s="12">
         <v>2</v>
       </c>
-      <c r="AK14" s="12"/>
-      <c r="AL14" s="12"/>
+      <c r="AK14" s="26">
+        <v>2</v>
+      </c>
+      <c r="AL14" s="26">
+        <v>2</v>
+      </c>
       <c r="AM14" s="12">
         <v>1</v>
       </c>
-      <c r="AN14" s="12"/>
+      <c r="AN14" s="26">
+        <v>1</v>
+      </c>
       <c r="AO14" s="12">
         <v>1</v>
       </c>
@@ -2443,7 +3100,7 @@
       </c>
     </row>
     <row r="15" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>88</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -2545,18 +3202,24 @@
       <c r="AH15" s="12">
         <v>2</v>
       </c>
-      <c r="AI15" s="12" t="s">
+      <c r="AI15" s="26" t="s">
         <v>46</v>
       </c>
       <c r="AJ15" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AK15" s="12"/>
-      <c r="AL15" s="12"/>
+      <c r="AK15" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL15" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="AM15" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AN15" s="12"/>
+      <c r="AN15" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="AO15" s="12" t="s">
         <v>46</v>
       </c>
@@ -2577,7 +3240,7 @@
       </c>
     </row>
     <row r="16" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>89</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2679,18 +3342,24 @@
       <c r="AH16" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AI16" s="12">
+      <c r="AI16" s="26">
         <v>1</v>
       </c>
       <c r="AJ16" s="12">
         <v>2</v>
       </c>
-      <c r="AK16" s="12"/>
-      <c r="AL16" s="12"/>
+      <c r="AK16" s="26">
+        <v>1</v>
+      </c>
+      <c r="AL16" s="26">
+        <v>2</v>
+      </c>
       <c r="AM16" s="12">
         <v>1</v>
       </c>
-      <c r="AN16" s="12"/>
+      <c r="AN16" s="26">
+        <v>2</v>
+      </c>
       <c r="AO16" s="12">
         <v>1</v>
       </c>
@@ -2712,7 +3381,7 @@
       </c>
     </row>
     <row r="17" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>89</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -2814,18 +3483,24 @@
       <c r="AH17" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AI17" s="12">
+      <c r="AI17" s="26">
         <v>1</v>
       </c>
       <c r="AJ17" s="12">
         <v>2</v>
       </c>
-      <c r="AK17" s="12"/>
-      <c r="AL17" s="12"/>
+      <c r="AK17" s="26">
+        <v>2</v>
+      </c>
+      <c r="AL17" s="26">
+        <v>2</v>
+      </c>
       <c r="AM17" s="12">
         <v>1</v>
       </c>
-      <c r="AN17" s="12"/>
+      <c r="AN17" s="26">
+        <v>1</v>
+      </c>
       <c r="AO17" s="12">
         <v>1</v>
       </c>
@@ -2847,7 +3522,7 @@
       </c>
     </row>
     <row r="18" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>89</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -2949,18 +3624,24 @@
       <c r="AH18" s="12">
         <v>1</v>
       </c>
-      <c r="AI18" s="12" t="s">
+      <c r="AI18" s="26" t="s">
         <v>46</v>
       </c>
       <c r="AJ18" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AK18" s="12"/>
-      <c r="AL18" s="12"/>
+      <c r="AK18" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL18" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="AM18" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AN18" s="12"/>
+      <c r="AN18" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="AO18" s="12" t="s">
         <v>46</v>
       </c>
@@ -2981,7 +3662,7 @@
       </c>
     </row>
     <row r="19" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>90</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -3090,18 +3771,24 @@
       <c r="AH19" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AI19" s="12">
+      <c r="AI19" s="26">
         <v>1</v>
       </c>
       <c r="AJ19" s="12">
         <v>2</v>
       </c>
-      <c r="AK19" s="12"/>
-      <c r="AL19" s="12"/>
+      <c r="AK19" s="26">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="26">
+        <v>2</v>
+      </c>
       <c r="AM19" s="12">
         <v>1</v>
       </c>
-      <c r="AN19" s="12"/>
+      <c r="AN19" s="26">
+        <v>1</v>
+      </c>
       <c r="AO19" s="12">
         <v>1</v>
       </c>
@@ -3123,7 +3810,7 @@
       </c>
     </row>
     <row r="20" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="17" t="s">
         <v>90</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -3232,18 +3919,24 @@
       <c r="AH20" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AI20" s="12">
+      <c r="AI20" s="26">
         <v>1</v>
       </c>
       <c r="AJ20" s="12">
         <v>2</v>
       </c>
-      <c r="AK20" s="12"/>
-      <c r="AL20" s="12"/>
+      <c r="AK20" s="26">
+        <v>1</v>
+      </c>
+      <c r="AL20" s="26">
+        <v>3</v>
+      </c>
       <c r="AM20" s="12">
         <v>1</v>
       </c>
-      <c r="AN20" s="12"/>
+      <c r="AN20" s="26">
+        <v>1</v>
+      </c>
       <c r="AO20" s="12">
         <v>1</v>
       </c>
@@ -3265,7 +3958,7 @@
       </c>
     </row>
     <row r="21" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="17" t="s">
         <v>90</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -3374,18 +4067,24 @@
       <c r="AH21" s="12">
         <v>1</v>
       </c>
-      <c r="AI21" s="12" t="s">
+      <c r="AI21" s="26" t="s">
         <v>46</v>
       </c>
       <c r="AJ21" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AK21" s="12"/>
-      <c r="AL21" s="12"/>
+      <c r="AK21" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL21" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="AM21" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AN21" s="12"/>
+      <c r="AN21" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="AO21" s="12" t="s">
         <v>46</v>
       </c>
@@ -3406,7 +4105,7 @@
       </c>
     </row>
     <row r="22" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>91</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -3508,18 +4207,24 @@
       <c r="AH22" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AI22" s="12">
+      <c r="AI22" s="26">
         <v>1</v>
       </c>
       <c r="AJ22" s="12">
         <v>2</v>
       </c>
-      <c r="AK22" s="12"/>
-      <c r="AL22" s="12"/>
+      <c r="AK22" s="26">
+        <v>2</v>
+      </c>
+      <c r="AL22" s="26">
+        <v>2</v>
+      </c>
       <c r="AM22" s="12">
         <v>1</v>
       </c>
-      <c r="AN22" s="12"/>
+      <c r="AN22" s="26">
+        <v>1</v>
+      </c>
       <c r="AO22" s="12">
         <v>1</v>
       </c>
@@ -3541,7 +4246,7 @@
       </c>
     </row>
     <row r="23" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="17" t="s">
         <v>91</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -3643,18 +4348,24 @@
       <c r="AH23" s="12">
         <v>2</v>
       </c>
-      <c r="AI23" s="12" t="s">
+      <c r="AI23" s="26" t="s">
         <v>46</v>
       </c>
       <c r="AJ23" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AK23" s="12"/>
-      <c r="AL23" s="12"/>
+      <c r="AK23" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL23" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="AM23" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AN23" s="12"/>
+      <c r="AN23" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="AO23" s="12" t="s">
         <v>46</v>
       </c>
@@ -3675,7 +4386,7 @@
       </c>
     </row>
     <row r="24" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="17" t="s">
         <v>92</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -3780,18 +4491,24 @@
       <c r="AH24" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AI24" s="12">
+      <c r="AI24" s="26">
         <v>2</v>
       </c>
       <c r="AJ24" s="12">
         <v>1</v>
       </c>
-      <c r="AK24" s="12"/>
-      <c r="AL24" s="12"/>
+      <c r="AK24" s="26">
+        <v>2</v>
+      </c>
+      <c r="AL24" s="26">
+        <v>1</v>
+      </c>
       <c r="AM24" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AN24" s="12"/>
+      <c r="AN24" s="26">
+        <v>1</v>
+      </c>
       <c r="AO24" s="12" t="s">
         <v>46</v>
       </c>
@@ -3812,7 +4529,7 @@
       </c>
     </row>
     <row r="25" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="17" t="s">
         <v>92</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -3917,18 +4634,24 @@
       <c r="AH25" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AI25" s="12">
+      <c r="AI25" s="26">
         <v>2</v>
       </c>
       <c r="AJ25" s="12">
         <v>1</v>
       </c>
-      <c r="AK25" s="12"/>
-      <c r="AL25" s="12"/>
+      <c r="AK25" s="26">
+        <v>2</v>
+      </c>
+      <c r="AL25" s="26">
+        <v>1</v>
+      </c>
       <c r="AM25" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AN25" s="12"/>
+      <c r="AN25" s="26">
+        <v>1</v>
+      </c>
       <c r="AO25" s="12" t="s">
         <v>46</v>
       </c>
@@ -3949,7 +4672,7 @@
       </c>
     </row>
     <row r="26" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="17" t="s">
         <v>92</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -4054,18 +4777,24 @@
       <c r="AH26" s="12">
         <v>1</v>
       </c>
-      <c r="AI26" s="12" t="s">
+      <c r="AI26" s="26" t="s">
         <v>46</v>
       </c>
       <c r="AJ26" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AK26" s="12"/>
-      <c r="AL26" s="12"/>
+      <c r="AK26" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL26" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="AM26" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AN26" s="12"/>
+      <c r="AN26" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="AO26" s="12" t="s">
         <v>46</v>
       </c>
@@ -4086,7 +4815,7 @@
       </c>
     </row>
     <row r="27" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="17" t="s">
         <v>93</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -4190,18 +4919,24 @@
       <c r="AH27" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AI27" s="12">
+      <c r="AI27" s="26">
         <v>1</v>
       </c>
       <c r="AJ27" s="12">
         <v>2</v>
       </c>
-      <c r="AK27" s="12"/>
-      <c r="AL27" s="12"/>
+      <c r="AK27" s="26">
+        <v>2</v>
+      </c>
+      <c r="AL27" s="26">
+        <v>2</v>
+      </c>
       <c r="AM27" s="12">
         <v>1</v>
       </c>
-      <c r="AN27" s="12"/>
+      <c r="AN27" s="26">
+        <v>2</v>
+      </c>
       <c r="AO27" s="12">
         <v>1</v>
       </c>
@@ -4223,7 +4958,7 @@
       </c>
     </row>
     <row r="28" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="17" t="s">
         <v>93</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -4327,18 +5062,24 @@
       <c r="AH28" s="12">
         <v>1</v>
       </c>
-      <c r="AI28" s="12" t="s">
+      <c r="AI28" s="26" t="s">
         <v>46</v>
       </c>
       <c r="AJ28" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AK28" s="12"/>
-      <c r="AL28" s="12"/>
+      <c r="AK28" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL28" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="AM28" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AN28" s="12"/>
+      <c r="AN28" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="AO28" s="12" t="s">
         <v>46</v>
       </c>
@@ -4359,7 +5100,7 @@
       </c>
     </row>
     <row r="29" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="17" t="s">
         <v>94</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -4463,18 +5204,24 @@
       <c r="AH29" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AI29" s="12">
+      <c r="AI29" s="26">
         <v>1</v>
       </c>
       <c r="AJ29" s="12">
         <v>2</v>
       </c>
-      <c r="AK29" s="12"/>
-      <c r="AL29" s="12"/>
+      <c r="AK29" s="26">
+        <v>1</v>
+      </c>
+      <c r="AL29" s="26">
+        <v>4</v>
+      </c>
       <c r="AM29" s="12">
         <v>1</v>
       </c>
-      <c r="AN29" s="12"/>
+      <c r="AN29" s="26">
+        <v>1</v>
+      </c>
       <c r="AO29" s="12">
         <v>1</v>
       </c>
@@ -4496,7 +5243,7 @@
       </c>
     </row>
     <row r="30" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="17" t="s">
         <v>94</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -4600,18 +5347,24 @@
       <c r="AH30" s="12">
         <v>1</v>
       </c>
-      <c r="AI30" s="12" t="s">
+      <c r="AI30" s="26" t="s">
         <v>46</v>
       </c>
       <c r="AJ30" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AK30" s="12"/>
-      <c r="AL30" s="12"/>
+      <c r="AK30" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL30" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="AM30" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AN30" s="12"/>
+      <c r="AN30" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="AO30" s="12" t="s">
         <v>46</v>
       </c>
@@ -4632,7 +5385,7 @@
       </c>
     </row>
     <row r="31" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="17" t="s">
         <v>95</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -4734,18 +5487,24 @@
       <c r="AH31" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AI31" s="12">
+      <c r="AI31" s="26">
         <v>1</v>
       </c>
       <c r="AJ31" s="12">
         <v>2</v>
       </c>
-      <c r="AK31" s="12"/>
-      <c r="AL31" s="12"/>
+      <c r="AK31" s="26">
+        <v>2</v>
+      </c>
+      <c r="AL31" s="26">
+        <v>2</v>
+      </c>
       <c r="AM31" s="12">
         <v>1</v>
       </c>
-      <c r="AN31" s="12"/>
+      <c r="AN31" s="26">
+        <v>1</v>
+      </c>
       <c r="AO31" s="12">
         <v>1</v>
       </c>
@@ -4767,7 +5526,7 @@
       </c>
     </row>
     <row r="32" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="17" t="s">
         <v>95</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -4869,18 +5628,24 @@
       <c r="AH32" s="12">
         <v>1</v>
       </c>
-      <c r="AI32" s="12" t="s">
+      <c r="AI32" s="26" t="s">
         <v>46</v>
       </c>
       <c r="AJ32" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AK32" s="12"/>
-      <c r="AL32" s="12"/>
+      <c r="AK32" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL32" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="AM32" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AN32" s="12"/>
+      <c r="AN32" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="AO32" s="12" t="s">
         <v>46</v>
       </c>
@@ -4901,7 +5666,7 @@
       </c>
     </row>
     <row r="33" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="17" t="s">
         <v>95</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -5003,18 +5768,24 @@
       <c r="AH33" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AI33" s="12">
+      <c r="AI33" s="26">
         <v>1</v>
       </c>
       <c r="AJ33" s="12">
         <v>2</v>
       </c>
-      <c r="AK33" s="12"/>
-      <c r="AL33" s="12"/>
+      <c r="AK33" s="26">
+        <v>2</v>
+      </c>
+      <c r="AL33" s="26">
+        <v>2</v>
+      </c>
       <c r="AM33" s="12">
         <v>1</v>
       </c>
-      <c r="AN33" s="12"/>
+      <c r="AN33" s="26">
+        <v>1</v>
+      </c>
       <c r="AO33" s="12">
         <v>1</v>
       </c>
@@ -5036,7 +5807,7 @@
       </c>
     </row>
     <row r="34" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="17" t="s">
         <v>95</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -5138,18 +5909,24 @@
       <c r="AH34" s="12">
         <v>1</v>
       </c>
-      <c r="AI34" s="20" t="s">
+      <c r="AI34" s="28" t="s">
         <v>46</v>
       </c>
       <c r="AJ34" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AK34" s="12"/>
-      <c r="AL34" s="12"/>
+      <c r="AK34" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL34" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="AM34" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AN34" s="12"/>
+      <c r="AN34" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="AO34" s="12" t="s">
         <v>46</v>
       </c>
@@ -5170,7 +5947,7 @@
       </c>
     </row>
     <row r="35" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="17" t="s">
         <v>96</v>
       </c>
       <c r="B35" s="9" t="s">
@@ -5272,18 +6049,24 @@
       <c r="AH35" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AI35" s="12">
+      <c r="AI35" s="26">
         <v>1</v>
       </c>
       <c r="AJ35" s="12">
         <v>2</v>
       </c>
-      <c r="AK35" s="12"/>
-      <c r="AL35" s="12"/>
+      <c r="AK35" s="26">
+        <v>2</v>
+      </c>
+      <c r="AL35" s="26">
+        <v>2</v>
+      </c>
       <c r="AM35" s="12">
         <v>1</v>
       </c>
-      <c r="AN35" s="12"/>
+      <c r="AN35" s="26">
+        <v>1</v>
+      </c>
       <c r="AO35" s="12">
         <v>1</v>
       </c>
@@ -5304,7 +6087,7 @@
       </c>
     </row>
     <row r="36" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="17" t="s">
         <v>96</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -5406,18 +6189,24 @@
       <c r="AH36" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AI36" s="12">
+      <c r="AI36" s="26">
         <v>1</v>
       </c>
       <c r="AJ36" s="12">
         <v>2</v>
       </c>
-      <c r="AK36" s="12"/>
-      <c r="AL36" s="12"/>
+      <c r="AK36" s="26">
+        <v>2</v>
+      </c>
+      <c r="AL36" s="26">
+        <v>2</v>
+      </c>
       <c r="AM36" s="12">
         <v>1</v>
       </c>
-      <c r="AN36" s="12"/>
+      <c r="AN36" s="26">
+        <v>2</v>
+      </c>
       <c r="AO36" s="12">
         <v>1</v>
       </c>
@@ -5438,7 +6227,7 @@
       </c>
     </row>
     <row r="37" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="17" t="s">
         <v>96</v>
       </c>
       <c r="B37" s="9" t="s">
@@ -5540,18 +6329,24 @@
       <c r="AH37" s="12">
         <v>1</v>
       </c>
-      <c r="AI37" s="12" t="s">
+      <c r="AI37" s="26" t="s">
         <v>46</v>
       </c>
       <c r="AJ37" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AK37" s="12"/>
-      <c r="AL37" s="12"/>
+      <c r="AK37" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL37" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="AM37" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AN37" s="12"/>
+      <c r="AN37" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="AO37" s="12" t="s">
         <v>46</v>
       </c>
@@ -5581,5 +6376,6 @@
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup fitToWidth="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>